--- a/biology/Biologie cellulaire et moléculaire/YAP_(protéine)/YAP_(protéine).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/YAP_(protéine)/YAP_(protéine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>YAP_(prot%C3%A9ine)</t>
+          <t>YAP_(protéine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La YAP, sigle pour Yes-associated protein, est une protéine normalement présente dans le cytoplasme des cellules qui, avec la protéine TAZ, migre vers le noyau à la suite d'un allongement du cytosquelette provoqué par des contraintes mécaniques d'étirement. Elle se positionne en des points précis de l'ADN et active des gènes particuliers qui déclenchent la croissance cellulaire.
  Portail de la biologie cellulaire et moléculaire                     </t>
